--- a/NLP/감정별 음악 추천.xlsx
+++ b/NLP/감정별 음악 추천.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,69 +1168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>요한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파헬벨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐논</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변주곡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BLACKPINK - Lovesick Girls</t>
   </si>
   <si>
@@ -1418,9 +1355,6 @@
   </si>
   <si>
     <t>태연 - U R</t>
-  </si>
-  <si>
-    <t>태연 - U R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1440,9 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오마이걸 - Dolphin</t>
-  </si>
-  <si>
     <t>cigarettes after sex - k</t>
   </si>
   <si>
@@ -1753,10 +1684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gershwin - Rhapsody in Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박세아 - 희망 (original version)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,9 +1822,6 @@
   </si>
   <si>
     <t>산들 - 취기를 빌려</t>
-  </si>
-  <si>
-    <t>산들 - 취기를 빌려</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1906,9 +1830,6 @@
   </si>
   <si>
     <t>기리보이 - 연기</t>
-  </si>
-  <si>
-    <t>기리보이 - 연기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2009,12 +1930,6 @@
     <t>Bad Blood - Taylor Swift</t>
   </si>
   <si>
-    <t>(여자)아이들 - 덤디덤디</t>
-  </si>
-  <si>
-    <t>Gerda - Burden of Proof</t>
-  </si>
-  <si>
     <t>john legend - never break</t>
   </si>
   <si>
@@ -2027,458 +1942,234 @@
     <t>MAX - Love me less</t>
   </si>
   <si>
-    <t>로꼬 - 잠이들어야</t>
-  </si>
-  <si>
     <t>옥상달빛 - 수고했어, 오늘도</t>
   </si>
   <si>
-    <t>옥상달빛 - 수고했어 오늘도</t>
-  </si>
-  <si>
     <t>엠씨더맥스 - 잠시만안녕</t>
   </si>
   <si>
-    <t>어쿠스틱콜라보 - 응원가</t>
-  </si>
-  <si>
-    <t>휘인 - 헤어지자</t>
-  </si>
-  <si>
-    <t>노래를 안들음</t>
-  </si>
-  <si>
     <t>이효리 - Chitty Chitty Bang Bang</t>
   </si>
   <si>
-    <t>아이유 - 무릎</t>
-  </si>
-  <si>
     <t>Nell - lets take a walk 전곡</t>
   </si>
   <si>
     <t>Walk The Moon - Shup Up and Dance</t>
   </si>
   <si>
-    <t>panic! at the disco - high hopes</t>
-  </si>
-  <si>
     <t>오아시스 - Don't Look Back in Anger</t>
   </si>
   <si>
     <t>자이언티 - 헷갈려</t>
   </si>
   <si>
+    <t>아이유 - 에잇</t>
+  </si>
+  <si>
+    <t>더 크로스 - Don't Cry</t>
+  </si>
+  <si>
+    <t>Andrea Bocelli, Celine Dion- The prayer</t>
+  </si>
+  <si>
+    <t>태연-11:11</t>
+  </si>
+  <si>
+    <t>TONES AND I - DANCE MONKEY</t>
+  </si>
+  <si>
+    <t>식케이 - FIRE</t>
+  </si>
+  <si>
+    <t>죠지 - voat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유 - unlucky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태연 - starlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이오아이 - When the Cherry Blossom Fade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유-시간의바깥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁오 - help</t>
+  </si>
+  <si>
+    <t>언니네 이발관 - 아름다운 것</t>
+  </si>
+  <si>
+    <t>Smashing Pumpkins - 1979</t>
+  </si>
+  <si>
+    <t>김동률 - 여름의 끝자락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백예린 - rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라이머리 - 입장정리</t>
+  </si>
+  <si>
+    <t>JazzyFact - 아까워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적재 - 나랑 같이 걸을래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽하이 - 노땡큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠씨더맥스 - 사계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창모- band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무키무키만만수 - 안드로메다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2NE1 - Can't Nobody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스커버스커 - 소나기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Dominic - 짠해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이식스 - 좀비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙핑크 - kill this love</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙핑크 - How you like that</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트웰브 - Highway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마미손 - 별의노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마미손 - 땡큐땡큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매드클라운 - 나쁜 피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탄소년단 - fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈지노 - break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루엘 - Painkiller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윙스, 한요한 - 호루라기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한요한 - Mood Maker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당 디기 방 - 레게 강 같은 평화 RGP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한요한 - Baby I'M A ROCKSTAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지코 - 천둥벌거숭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한요한 - 헬리콥터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장기하와 얼굴들 - 그렇고 그런 사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Zayde Wolf - Gladiator</t>
-  </si>
-  <si>
-    <t>방탄소년단 - 디오니소스</t>
-  </si>
-  <si>
-    <t>아이유 - 에잇</t>
-  </si>
-  <si>
-    <t>켄-나랑만나볼래요</t>
-  </si>
-  <si>
-    <t>더 크로스 - Don't Cry</t>
-  </si>
-  <si>
-    <t>에픽하이 - 노땡큐</t>
-  </si>
-  <si>
-    <t>안 들음</t>
-  </si>
-  <si>
-    <t>예뻐서 - 유승우</t>
-  </si>
-  <si>
-    <t>사계-mc the max</t>
-  </si>
-  <si>
-    <t>Andrea Bocelli, Celine Dion- The prayer</t>
-  </si>
-  <si>
-    <t>blnk - dead man , 창모- band</t>
-  </si>
-  <si>
-    <t>태연-11:11</t>
-  </si>
-  <si>
-    <t>엑소-love me right, 엑소-call me baby 등 아이돌노래</t>
-  </si>
-  <si>
-    <t>소나기- 버스커버스커// can’t nobody- 2ne1</t>
-  </si>
-  <si>
-    <t>무키무키만만수 - 벌레</t>
-  </si>
-  <si>
-    <t>아이유-무릎</t>
-  </si>
-  <si>
-    <t>태연 - 스트레스</t>
-  </si>
-  <si>
-    <t>개리-또하루 / simon d-짠해 /디오-괜찮아도 괜찮아</t>
-  </si>
-  <si>
-    <t>치즈 - 퇴근시간, 백예린 - 산책</t>
-  </si>
-  <si>
-    <t>환불원정대 - DON'T TOUCH ME</t>
-  </si>
-  <si>
-    <t>Amy Winehouse - Back to Black</t>
-  </si>
-  <si>
-    <t>Gerda - Accusation</t>
-  </si>
-  <si>
-    <t>oasis - stop crying your heart out</t>
-  </si>
-  <si>
-    <t>조용필 - 추억 속의 재회</t>
-  </si>
-  <si>
-    <t>TONES AND I - DANCE MONKEY</t>
-  </si>
-  <si>
-    <t>여행스케치 - 다 잘 될 거야</t>
-  </si>
-  <si>
-    <t>여행스케치 - 산다는건 다 그런게 아니겠니</t>
-  </si>
-  <si>
-    <t>새소년 - 난춘</t>
-  </si>
-  <si>
-    <t>백예린 - Square(2017)</t>
-  </si>
-  <si>
-    <t>빈지노 - break</t>
-  </si>
-  <si>
-    <t>로꼬 - 감아</t>
-  </si>
-  <si>
-    <t>선우정아 - 도망가자</t>
-  </si>
-  <si>
-    <t>CHEEZE - Ticket</t>
-  </si>
-  <si>
-    <t>윤종신 - 지친하루</t>
-  </si>
-  <si>
-    <t>크러쉬 - 어떻게 지내</t>
-  </si>
-  <si>
-    <t>스탠딩 에그 - 무지개</t>
-  </si>
-  <si>
-    <t>멜로망스 - 선물</t>
-  </si>
-  <si>
-    <t>식케이 - FIRE</t>
-  </si>
-  <si>
-    <t>MINO - 몸</t>
-  </si>
-  <si>
-    <t>둘째이모 김다비 - 주라주라</t>
-  </si>
-  <si>
-    <t>지드래곤 - 크래용</t>
-  </si>
-  <si>
-    <t>지오디 - 길</t>
-  </si>
-  <si>
-    <t>아이유 - 이지금</t>
-  </si>
-  <si>
-    <t>Nell - healing process 전곡</t>
-  </si>
-  <si>
-    <t>허각 - 행복한 나를</t>
-  </si>
-  <si>
-    <t>오마이걸 - 꽃차</t>
-  </si>
-  <si>
-    <t>레드벨벳 - 미래</t>
-  </si>
-  <si>
-    <t>The Chainsmokers - Something Just Like This</t>
-  </si>
-  <si>
-    <t>안들음</t>
-  </si>
-  <si>
-    <t>AC/DC - You Shook Me All Night Long</t>
-  </si>
-  <si>
-    <t>매드 클라운 - 나쁜 피</t>
-  </si>
-  <si>
-    <t>청하 - love u</t>
-  </si>
-  <si>
-    <t>The Unlikely Candidates - Oh My Dear Lord</t>
-  </si>
-  <si>
-    <t>The Weeknd - Blinding Lights</t>
-  </si>
-  <si>
-    <t>빈지노 - 브레이크</t>
-  </si>
-  <si>
-    <t>kiiara - gold</t>
-  </si>
-  <si>
-    <t>sg워너비 - 사랑하자</t>
-  </si>
-  <si>
-    <t>방탄소년단 - Filter</t>
-  </si>
-  <si>
-    <t>라붐-상상더하기</t>
-  </si>
-  <si>
-    <t>마마무-HIP</t>
-  </si>
-  <si>
-    <t>더 자두 - 김밥</t>
-  </si>
-  <si>
-    <t>더 넛츠 - 사랑의 바보</t>
-  </si>
-  <si>
-    <t>Dynamite - 방탄소년단</t>
-  </si>
-  <si>
-    <t>최악에 실수와 실수가 반복되는 날</t>
-  </si>
-  <si>
-    <t>예상치 못한 선물이나 금전이 생긴날</t>
-  </si>
-  <si>
-    <t>Painkiller - Ruel</t>
-  </si>
-  <si>
-    <t>사랑한다는 말로는 - 피아노맨</t>
-  </si>
-  <si>
-    <t>방탄 - fire</t>
-  </si>
-  <si>
-    <t>오마이걸 - 돌핀</t>
-  </si>
-  <si>
-    <t>Returns-mc the max</t>
-  </si>
-  <si>
-    <t>Summer hate -지코</t>
-  </si>
-  <si>
-    <t>유튜브 명상음악</t>
-  </si>
-  <si>
-    <t>에버랜드 장미축제 테마곡</t>
-  </si>
-  <si>
-    <t>롤러코스터 - 힘을내요 미스터김</t>
-  </si>
-  <si>
-    <t>펀치 - 영화 속에 나오는 주인공처럼</t>
-  </si>
-  <si>
-    <t>선우정아-도망가자</t>
-  </si>
-  <si>
-    <t>콜드플레이-viva la vida</t>
-  </si>
-  <si>
-    <t>잔잔한 노래, 동물원-시청앞 지하철역에서</t>
-  </si>
-  <si>
-    <t>서프라이즈한 하루가 기억이 나지 않아요. 긍정적으로 서프라이즈한 하루라면 : (여자)아이들-덤디덤디</t>
-  </si>
-  <si>
-    <t>Lonely-종현// 오르막길-윤종신</t>
-  </si>
-  <si>
-    <t>10,000 hours-justin bieber/ tattoos together-lauv</t>
-  </si>
-  <si>
-    <t>윤종신 - 좋니</t>
-  </si>
-  <si>
-    <t>스탠딩에그 - 오래된 노래</t>
-  </si>
-  <si>
-    <t>데이식스-예뻤어</t>
-  </si>
-  <si>
-    <t>Anne-Marie - Trigger</t>
-  </si>
-  <si>
-    <t>아이유-밤편지</t>
-  </si>
-  <si>
-    <t>아이유 - 그 애 참 싫다</t>
-  </si>
-  <si>
-    <t>보아 - 아틀란티스소녀</t>
-  </si>
-  <si>
-    <t>그런날은 노래생각이 안날거같습니다..!</t>
-  </si>
-  <si>
-    <t>아이유-블루밍</t>
-  </si>
-  <si>
-    <t>브로콜리너마저 - 사랑한다는 말로도 위로가 되지 않는, Radiohead - high and dry</t>
-  </si>
-  <si>
-    <t>MGMT - kids, Mariah Carey - all i want for christmas is you</t>
-  </si>
-  <si>
-    <t>bon fire-peder elias</t>
-  </si>
-  <si>
-    <t>wannabe-itzy</t>
-  </si>
-  <si>
-    <t>Coldplay - everglow, 혁오 - Ohio</t>
-  </si>
-  <si>
-    <t>콜드 시</t>
-  </si>
-  <si>
-    <t>오왠 피크닉</t>
-  </si>
-  <si>
-    <t>트와이스 - Feel Special, 동방신기 - Crazy Love, 레드벨벳 - Would U</t>
-  </si>
-  <si>
-    <t>백예린 - Square(2017), 아이유 - Blueming, 알라딘 - A Whole New World</t>
-  </si>
-  <si>
-    <t>적재 - 별보러가자</t>
-  </si>
-  <si>
-    <t>Owl City- Hot Air Balloon</t>
-  </si>
-  <si>
-    <t>사랑은 - 마미손, 나였으면 - 나윤권 등</t>
-  </si>
-  <si>
-    <t>그냥 딱히 ....</t>
-  </si>
-  <si>
-    <t>비욘세 러브온탑</t>
-  </si>
-  <si>
-    <t>오마이걸 돌핀</t>
-  </si>
-  <si>
-    <t>god-길, 볼빨간사춘기-내 사춘기에게, BTS-save me, 화사-maria, 이하이-홀로, 양희은-엄마가 딸에게</t>
-  </si>
-  <si>
-    <t>Imagine dragons-thunder, VERIVERY-Thunder, 방탄소년단-쩔어, 아이유-삐삐, 무한궤도-그대에게</t>
-  </si>
-  <si>
-    <t>엠씨더맥스 - 잠시만 안녕, 린 - 시간을 거슬러</t>
-  </si>
-  <si>
-    <t>B1A4 - 이게 무슨 일이야</t>
-  </si>
-  <si>
-    <t>이소라-신청곡, 종현-lonely</t>
-  </si>
-  <si>
-    <t>Childish gambino - bonfire, Kanye West - POWER</t>
-  </si>
-  <si>
-    <t>위로-권진아</t>
-  </si>
-  <si>
-    <t>블랙핑크 - kill this love, How you like that</t>
-  </si>
-  <si>
-    <t>데이식스 좀비</t>
-  </si>
-  <si>
-    <t>트웰브 - Highway, 서현 - Don't Say No, 휘인 - 내 눈물 모아, 홀스트 - 목성</t>
-  </si>
-  <si>
-    <t>스무살 - 어쩌면 위로가 필요했던 우리</t>
-  </si>
-  <si>
-    <t>이승기-여행을 떠나요, lizzo-juice</t>
-  </si>
-  <si>
-    <t>우효 금요일</t>
-  </si>
-  <si>
-    <t>죠지 - voat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이유 - unlucky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태연 - starlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이오아이 - When the Cherry Blossom Fade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이유-시간의바깥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혁오 - help</t>
-  </si>
-  <si>
-    <t>언니네 이발관 - 아름다운 것</t>
-  </si>
-  <si>
-    <t>Smashing Pumpkins - 1979</t>
-  </si>
-  <si>
-    <t>김동률 - 여름의 끝자락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백예린 - rest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라이머리 - 입장정리</t>
-  </si>
-  <si>
-    <t>JazzyFact - 아까워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남구민 - Reminiscence</t>
-  </si>
-  <si>
-    <t>angry_response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>horror_response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>surprise_response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandson - blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Million - D. M. S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renforshort - I drive me mad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flor - Imho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPSAHL - people I don’t like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lola blanc - angry too</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bishop Briggs - Champion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nikki Vianna - Mambo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lizzo - juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재즈 음악 모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식 음악 모음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2605,7 +2296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2634,9 +2325,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2919,12 +2607,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2934,16 +2622,13 @@
     <col min="3" max="3" width="45.3984375" customWidth="1"/>
     <col min="4" max="4" width="53.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.19921875" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" customWidth="1"/>
-    <col min="7" max="7" width="29.09765625" customWidth="1"/>
-    <col min="8" max="8" width="111.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.796875" customWidth="1"/>
-    <col min="10" max="10" width="29.796875" customWidth="1"/>
-    <col min="11" max="11" width="35.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="74.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="111.69921875" customWidth="1"/>
+    <col min="9" max="9" width="74.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2965,17 +2650,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2989,22 +2665,16 @@
         <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3018,22 +2688,10 @@
         <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" t="s">
-        <v>309</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3047,22 +2705,10 @@
         <v>57</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3076,19 +2722,10 @@
         <v>72</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="I5" t="s">
-        <v>311</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3102,19 +2739,10 @@
         <v>73</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>312</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3128,19 +2756,10 @@
         <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="I7" t="s">
-        <v>313</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3154,19 +2773,10 @@
         <v>74</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3177,22 +2787,13 @@
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="I9" t="s">
-        <v>315</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3203,22 +2804,13 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="I10" t="s">
-        <v>316</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3229,18 +2821,13 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="I11" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3251,22 +2838,13 @@
         <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="I12" t="s">
-        <v>318</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3274,25 +2852,16 @@
         <v>78</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I13" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3300,1286 +2869,1034 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="I14" t="s">
-        <v>320</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="I15" t="s">
-        <v>321</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="I16" t="s">
-        <v>322</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="E16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="I17" t="s">
-        <v>323</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" t="s">
-        <v>324</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>307</v>
       </c>
       <c r="I19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" t="s">
-        <v>326</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
-      </c>
-      <c r="I21" t="s">
-        <v>327</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="E21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
-      </c>
-      <c r="I22" t="s">
-        <v>328</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="E22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" t="s">
-        <v>329</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="E23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I24" t="s">
-        <v>330</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
-      </c>
-      <c r="I25" t="s">
-        <v>331</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" t="s">
-        <v>332</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
-      </c>
-      <c r="I27" t="s">
-        <v>333</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="E27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
-      </c>
-      <c r="I30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="E30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
-      </c>
-      <c r="I31" t="s">
-        <v>315</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="E31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
-      </c>
-      <c r="I32" t="s">
-        <v>336</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="E32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" t="s">
-        <v>337</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+      <c r="E33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
-      </c>
-      <c r="I34" t="s">
-        <v>338</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="E34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" t="s">
-        <v>339</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
-      </c>
-      <c r="I36" t="s">
-        <v>340</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
-      </c>
-      <c r="I37" t="s">
-        <v>341</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="E37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
-      </c>
-      <c r="I38" t="s">
-        <v>342</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
-      </c>
-      <c r="I39" t="s">
-        <v>343</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+      <c r="E39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
-      </c>
-      <c r="I40" t="s">
-        <v>344</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="E41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42" t="s">
-        <v>346</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+      <c r="E42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="E44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+      <c r="E45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
-        <v>271</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="E48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="E49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="E50" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="E51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="E52" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="E53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+      <c r="E54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>89</v>
       </c>
       <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" t="s">
         <v>140</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
         <v>223</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D58" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" t="s">
+        <v>283</v>
+      </c>
+      <c r="E60" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>285</v>
+      </c>
+      <c r="E62" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" t="s">
+        <v>287</v>
+      </c>
+      <c r="E64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" t="s">
+        <v>229</v>
+      </c>
+      <c r="D65" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>224</v>
+      </c>
+      <c r="D66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
         <v>281</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C80" t="s">
         <v>152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" t="s">
-        <v>282</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>171</v>
-      </c>
-      <c r="B57" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" t="s">
-        <v>284</v>
-      </c>
-      <c r="I57" t="s">
-        <v>437</v>
-      </c>
-      <c r="J57" t="s">
-        <v>416</v>
-      </c>
-      <c r="K57" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>226</v>
-      </c>
-      <c r="D58" t="s">
-        <v>285</v>
-      </c>
-      <c r="I58" t="s">
-        <v>438</v>
-      </c>
-      <c r="J58" t="s">
-        <v>418</v>
-      </c>
-      <c r="K58" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" t="s">
-        <v>286</v>
-      </c>
-      <c r="I59" t="s">
-        <v>439</v>
-      </c>
-      <c r="J59" t="s">
-        <v>420</v>
-      </c>
-      <c r="K59" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D60" t="s">
-        <v>289</v>
-      </c>
-      <c r="I60" t="s">
-        <v>440</v>
-      </c>
-      <c r="J60" t="s">
-        <v>422</v>
-      </c>
-      <c r="K60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C61" t="s">
-        <v>229</v>
-      </c>
-      <c r="D61" t="s">
-        <v>290</v>
-      </c>
-      <c r="I61" t="s">
-        <v>441</v>
-      </c>
-      <c r="J61" t="s">
-        <v>423</v>
-      </c>
-      <c r="K61" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" t="s">
-        <v>291</v>
-      </c>
-      <c r="I62" t="s">
-        <v>442</v>
-      </c>
-      <c r="J62" t="s">
-        <v>425</v>
-      </c>
-      <c r="K62" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" t="s">
-        <v>292</v>
-      </c>
-      <c r="I63" t="s">
-        <v>443</v>
-      </c>
-      <c r="J63" t="s">
-        <v>427</v>
-      </c>
-      <c r="K63" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>231</v>
-      </c>
-      <c r="D64" t="s">
-        <v>293</v>
-      </c>
-      <c r="I64" t="s">
-        <v>444</v>
-      </c>
-      <c r="J64" t="s">
-        <v>429</v>
-      </c>
-      <c r="K64" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" t="s">
-        <v>232</v>
-      </c>
-      <c r="D65" t="s">
-        <v>294</v>
-      </c>
-      <c r="I65" t="s">
-        <v>445</v>
-      </c>
-      <c r="J65" t="s">
-        <v>431</v>
-      </c>
-      <c r="K65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" t="s">
-        <v>227</v>
-      </c>
-      <c r="D66" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" t="s">
-        <v>233</v>
-      </c>
-      <c r="D67" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" t="s">
-        <v>234</v>
-      </c>
-      <c r="D68" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" t="s">
-        <v>236</v>
-      </c>
-      <c r="D70" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" t="s">
-        <v>239</v>
-      </c>
-      <c r="D73" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" t="s">
-        <v>241</v>
-      </c>
-      <c r="D74" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" t="s">
-        <v>242</v>
-      </c>
-      <c r="D76" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>243</v>
-      </c>
-      <c r="D77" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>244</v>
-      </c>
-      <c r="D78" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B79" t="s">
-        <v>283</v>
-      </c>
-      <c r="C79" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
-        <v>287</v>
-      </c>
-      <c r="C80" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C82" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/NLP/감정별 음악 추천.xlsx
+++ b/NLP/감정별 음악 추천.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1587">
   <si>
     <t>Happy</t>
   </si>
@@ -4717,14 +4717,98 @@
     <t>Spring</t>
   </si>
   <si>
-    <t>클래식음악</t>
+    <t>_7jTnc-LUg0</t>
+  </si>
+  <si>
+    <t>https://image.bugsm.co.kr/album/images/500/80069/8006992.jpg</t>
+  </si>
+  <si>
+    <t>Mozart</t>
+  </si>
+  <si>
+    <t>Piano Sonata No. 12 in F Major, K. 332 - 1. Allegro</t>
+  </si>
+  <si>
+    <t>UYUO8W7wVv8</t>
+  </si>
+  <si>
+    <t>https://assets.classicfm.com/2012/31/mozart-1343837321-editorial-short-form-1.jpg</t>
+  </si>
+  <si>
+    <t>Flute Concerto_No_2_in_D_Major_K_314</t>
+  </si>
+  <si>
+    <t>E7ygLbH2cr8</t>
+  </si>
+  <si>
+    <t>String Quintet No.5 in D major K.593: I. Larghetto - Allegro</t>
+  </si>
+  <si>
+    <t>IijSFgxcy3M</t>
+  </si>
+  <si>
+    <t>F.Schubert</t>
+  </si>
+  <si>
+    <t>Moments Musicaux D.780 No.3</t>
+  </si>
+  <si>
+    <t>Az9pB4ypuLU</t>
+  </si>
+  <si>
+    <t>https://www.biography.com/.image/t_share/MTE1ODA0OTcxNzgwMTc5NDY5/franz-schubert-9475558-1-402.jpg</t>
+  </si>
+  <si>
+    <t>Die Forelle</t>
+  </si>
+  <si>
+    <t>5paSm3-4gv4</t>
+  </si>
+  <si>
+    <t>Mascagni: Cavalleria rusticana: Intermezz</t>
+  </si>
+  <si>
+    <t>Amadeus Quartet</t>
+  </si>
+  <si>
+    <t>5. Cavatina. Adagio molto espressiv</t>
+  </si>
+  <si>
+    <t>xm2J20LMdmU</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81QNQYjtV9L._SS500_.jpg</t>
+  </si>
+  <si>
+    <t>Sviatoslav Richter</t>
+  </si>
+  <si>
+    <t>Piano Concerto No. 2 in C Minor, Op. 1</t>
+  </si>
+  <si>
+    <t>t5jmkRnpxq4</t>
+  </si>
+  <si>
+    <t>https://cdnimg.genie.co.kr/Y/IMAGE/IMG_ALBUM/080/273/421/80273421_1531378151695_1_600x600.JPG/dims/resize/Q_80,0</t>
+  </si>
+  <si>
+    <t>Eugene Ormandy</t>
+  </si>
+  <si>
+    <t>Scheherazade, Op. 35/III. The Young Prince and the Young Princess</t>
+  </si>
+  <si>
+    <t>C6lqVmcMye4</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71f8JQl4zzL._SS500_.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4810,8 +4894,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4827,6 +4917,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4863,7 +4959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4914,6 +5010,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5198,16 +5297,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="4.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.69921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5232,7 +5331,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.2" thickBot="1">
+    <row r="2" spans="1:6" ht="18" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5252,7 +5351,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.2" thickBot="1">
+    <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5272,7 +5371,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.2" thickBot="1">
+    <row r="4" spans="1:6" ht="18" thickBot="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5292,7 +5391,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.2" thickBot="1">
+    <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5312,7 +5411,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.2" thickBot="1">
+    <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5332,7 +5431,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.2" thickBot="1">
+    <row r="7" spans="1:6" ht="18" thickBot="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5352,7 +5451,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.2" thickBot="1">
+    <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5372,7 +5471,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.2" thickBot="1">
+    <row r="9" spans="1:6" ht="18" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5392,7 +5491,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.2" thickBot="1">
+    <row r="10" spans="1:6" ht="18" thickBot="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5412,7 +5511,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.2" thickBot="1">
+    <row r="11" spans="1:6" ht="18" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5432,7 +5531,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.2" thickBot="1">
+    <row r="12" spans="1:6" ht="18" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5452,7 +5551,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.2" thickBot="1">
+    <row r="13" spans="1:6" ht="18" thickBot="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -5472,7 +5571,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.2" thickBot="1">
+    <row r="14" spans="1:6" ht="18" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5492,7 +5591,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.2" thickBot="1">
+    <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5532,7 +5631,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.2" thickBot="1">
+    <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5552,7 +5651,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.2" thickBot="1">
+    <row r="18" spans="1:6" ht="18" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5572,7 +5671,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.2" thickBot="1">
+    <row r="19" spans="1:6" ht="18" thickBot="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5592,7 +5691,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28.2" thickBot="1">
+    <row r="20" spans="1:6" ht="18" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -5612,7 +5711,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.2" thickBot="1">
+    <row r="21" spans="1:6" ht="18" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -5632,7 +5731,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.2" thickBot="1">
+    <row r="22" spans="1:6" ht="18" thickBot="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5652,7 +5751,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.2" thickBot="1">
+    <row r="23" spans="1:6" ht="18" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5672,7 +5771,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.2" thickBot="1">
+    <row r="24" spans="1:6" ht="18" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5712,7 +5811,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.2" thickBot="1">
+    <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5732,7 +5831,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.2" thickBot="1">
+    <row r="27" spans="1:6" ht="18" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5752,7 +5851,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.2" thickBot="1">
+    <row r="28" spans="1:6" ht="18" thickBot="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5792,7 +5891,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.2" thickBot="1">
+    <row r="30" spans="1:6" ht="18" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5812,7 +5911,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.2" thickBot="1">
+    <row r="31" spans="1:6" ht="18" thickBot="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5852,7 +5951,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.2" thickBot="1">
+    <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5892,7 +5991,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.2" thickBot="1">
+    <row r="35" spans="1:6" ht="18" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5912,7 +6011,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.2" thickBot="1">
+    <row r="36" spans="1:6" ht="18" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5932,7 +6031,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.2" thickBot="1">
+    <row r="37" spans="1:6" ht="18" thickBot="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5952,7 +6051,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.2" thickBot="1">
+    <row r="38" spans="1:6" ht="18" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5972,7 +6071,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28.2" thickBot="1">
+    <row r="39" spans="1:6" ht="18" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5992,7 +6091,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.2" thickBot="1">
+    <row r="40" spans="1:6" ht="18" thickBot="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6012,7 +6111,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.2" thickBot="1">
+    <row r="41" spans="1:6" ht="18" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6032,7 +6131,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.2" thickBot="1">
+    <row r="42" spans="1:6" ht="18" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -6072,7 +6171,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.2" thickBot="1">
+    <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6092,7 +6191,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.2" thickBot="1">
+    <row r="45" spans="1:6" ht="18" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6112,7 +6211,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="28.2" thickBot="1">
+    <row r="46" spans="1:6" ht="18" thickBot="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6132,7 +6231,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.2" thickBot="1">
+    <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6152,7 +6251,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.2" thickBot="1">
+    <row r="48" spans="1:6" ht="18" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6172,7 +6271,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.2" thickBot="1">
+    <row r="49" spans="1:6" ht="18" thickBot="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6192,7 +6291,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="28.2" thickBot="1">
+    <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6232,7 +6331,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.2" thickBot="1">
+    <row r="52" spans="1:6" ht="18" thickBot="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6252,7 +6351,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="28.2" thickBot="1">
+    <row r="53" spans="1:6" ht="18" thickBot="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6272,7 +6371,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.2" thickBot="1">
+    <row r="54" spans="1:6" ht="18" thickBot="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6292,7 +6391,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28.2" thickBot="1">
+    <row r="55" spans="1:6" ht="18" thickBot="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6312,7 +6411,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28.2" thickBot="1">
+    <row r="56" spans="1:6" ht="18" thickBot="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6332,7 +6431,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.2" thickBot="1">
+    <row r="57" spans="1:6" ht="18" thickBot="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6352,7 +6451,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.2" thickBot="1">
+    <row r="58" spans="1:6" ht="18" thickBot="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6372,7 +6471,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="28.2" thickBot="1">
+    <row r="59" spans="1:6" ht="18" thickBot="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6392,7 +6491,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="28.2" thickBot="1">
+    <row r="60" spans="1:6" ht="18" thickBot="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6412,7 +6511,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="28.2" thickBot="1">
+    <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6492,7 +6591,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28.2" thickBot="1">
+    <row r="65" spans="1:6" ht="18" thickBot="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -6532,7 +6631,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.2" thickBot="1">
+    <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -6552,7 +6651,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.2" thickBot="1">
+    <row r="68" spans="1:6" ht="18" thickBot="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -6572,7 +6671,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.2" thickBot="1">
+    <row r="69" spans="1:6" ht="18" thickBot="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6592,7 +6691,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.2" thickBot="1">
+    <row r="70" spans="1:6" ht="18" thickBot="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -6612,7 +6711,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28.2" thickBot="1">
+    <row r="71" spans="1:6" ht="18" thickBot="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -6632,7 +6731,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="28.2" thickBot="1">
+    <row r="72" spans="1:6" ht="18" thickBot="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -6652,7 +6751,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.2" thickBot="1">
+    <row r="73" spans="1:6" ht="18" thickBot="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -6672,7 +6771,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="28.2" thickBot="1">
+    <row r="74" spans="1:6" ht="18" thickBot="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -6692,7 +6791,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.2" thickBot="1">
+    <row r="75" spans="1:6" ht="18" thickBot="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -6712,7 +6811,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="28.2" thickBot="1">
+    <row r="76" spans="1:6" ht="18" thickBot="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -6732,7 +6831,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.2" thickBot="1">
+    <row r="77" spans="1:6" ht="18" thickBot="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -6752,7 +6851,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.2" thickBot="1">
+    <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -6792,7 +6891,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.2" thickBot="1">
+    <row r="80" spans="1:6" ht="18" thickBot="1">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -6812,7 +6911,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.2" thickBot="1">
+    <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -6852,7 +6951,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.2" thickBot="1">
+    <row r="83" spans="1:6" ht="18" thickBot="1">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -6872,7 +6971,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.2" thickBot="1">
+    <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -6892,7 +6991,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.2" thickBot="1">
+    <row r="85" spans="1:6" ht="18" thickBot="1">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -6912,7 +7011,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.2" thickBot="1">
+    <row r="86" spans="1:6" ht="18" thickBot="1">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -6932,7 +7031,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.2" thickBot="1">
+    <row r="87" spans="1:6" ht="18" thickBot="1">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -6972,7 +7071,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="28.2" thickBot="1">
+    <row r="89" spans="1:6" ht="18" thickBot="1">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -6992,7 +7091,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="28.2" thickBot="1">
+    <row r="90" spans="1:6" ht="18" thickBot="1">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -7012,7 +7111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="28.2" thickBot="1">
+    <row r="91" spans="1:6" ht="18" thickBot="1">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -7032,7 +7131,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="28.2" thickBot="1">
+    <row r="92" spans="1:6" ht="18" thickBot="1">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -7052,7 +7151,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="28.2" thickBot="1">
+    <row r="93" spans="1:6" ht="18" thickBot="1">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -7072,7 +7171,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.2" thickBot="1">
+    <row r="94" spans="1:6" ht="18" thickBot="1">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -7092,7 +7191,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="28.2" thickBot="1">
+    <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -7132,7 +7231,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.2" thickBot="1">
+    <row r="97" spans="1:6" ht="18" thickBot="1">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -7152,7 +7251,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.2" thickBot="1">
+    <row r="98" spans="1:6" ht="18" thickBot="1">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -7172,7 +7271,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="28.2" thickBot="1">
+    <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -7192,7 +7291,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="28.2" thickBot="1">
+    <row r="100" spans="1:6" ht="18" thickBot="1">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -7212,7 +7311,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.2" thickBot="1">
+    <row r="101" spans="1:6" ht="18" thickBot="1">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -7232,7 +7331,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="28.2" thickBot="1">
+    <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7252,7 +7351,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.2" thickBot="1">
+    <row r="103" spans="1:6" ht="18" thickBot="1">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -7272,7 +7371,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="28.2" thickBot="1">
+    <row r="104" spans="1:6" ht="18" thickBot="1">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7312,7 +7411,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="28.2" thickBot="1">
+    <row r="106" spans="1:6" ht="18" thickBot="1">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -7332,7 +7431,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="42" thickBot="1">
+    <row r="107" spans="1:6" ht="18" thickBot="1">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -7352,7 +7451,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="28.2" thickBot="1">
+    <row r="108" spans="1:6" ht="18" thickBot="1">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -7372,7 +7471,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.2" thickBot="1">
+    <row r="109" spans="1:6" ht="18" thickBot="1">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -7392,7 +7491,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="28.2" thickBot="1">
+    <row r="110" spans="1:6" ht="18" thickBot="1">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -7412,7 +7511,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="28.2" thickBot="1">
+    <row r="111" spans="1:6" ht="18" thickBot="1">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -7452,7 +7551,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="28.2" thickBot="1">
+    <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -7512,7 +7611,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="28.2" thickBot="1">
+    <row r="116" spans="1:6" ht="18" thickBot="1">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -7532,7 +7631,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.2" thickBot="1">
+    <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -7552,7 +7651,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="42" thickBot="1">
+    <row r="118" spans="1:6" ht="18" thickBot="1">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -7592,7 +7691,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="28.2" thickBot="1">
+    <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -7612,7 +7711,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="28.2" thickBot="1">
+    <row r="121" spans="1:6" ht="18" thickBot="1">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -7632,7 +7731,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="28.2" thickBot="1">
+    <row r="122" spans="1:6" ht="18" thickBot="1">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -7652,7 +7751,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="28.2" thickBot="1">
+    <row r="123" spans="1:6" ht="18" thickBot="1">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -7672,7 +7771,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="28.2" thickBot="1">
+    <row r="124" spans="1:6" ht="18" thickBot="1">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -7692,7 +7791,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="28.2" thickBot="1">
+    <row r="125" spans="1:6" ht="18" thickBot="1">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -7712,7 +7811,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="28.2" thickBot="1">
+    <row r="126" spans="1:6" ht="18" thickBot="1">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -7732,7 +7831,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="28.2" thickBot="1">
+    <row r="127" spans="1:6" ht="18" thickBot="1">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -7752,7 +7851,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.2" thickBot="1">
+    <row r="128" spans="1:6" ht="18" thickBot="1">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -7772,7 +7871,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="28.2" thickBot="1">
+    <row r="129" spans="1:6" ht="18" thickBot="1">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -7792,7 +7891,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="28.2" thickBot="1">
+    <row r="130" spans="1:6" ht="18" thickBot="1">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -7812,7 +7911,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28.2" thickBot="1">
+    <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -7832,7 +7931,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="28.2" thickBot="1">
+    <row r="132" spans="1:6" ht="18" thickBot="1">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -7872,7 +7971,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="28.2" thickBot="1">
+    <row r="134" spans="1:6" ht="18" thickBot="1">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -7892,7 +7991,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="28.2" thickBot="1">
+    <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -7912,7 +8011,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="28.2" thickBot="1">
+    <row r="136" spans="1:6" ht="18" thickBot="1">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -7932,7 +8031,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="28.2" thickBot="1">
+    <row r="137" spans="1:6" ht="18" thickBot="1">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -7952,7 +8051,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="28.2" thickBot="1">
+    <row r="138" spans="1:6" ht="18" thickBot="1">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -7992,7 +8091,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28.2" thickBot="1">
+    <row r="140" spans="1:6" ht="18" thickBot="1">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -8012,7 +8111,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="28.2" thickBot="1">
+    <row r="141" spans="1:6" ht="18" thickBot="1">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -8032,7 +8131,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28.2" thickBot="1">
+    <row r="142" spans="1:6" ht="18" thickBot="1">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -8052,7 +8151,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="28.2" thickBot="1">
+    <row r="143" spans="1:6" ht="18" thickBot="1">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -8072,7 +8171,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="28.2" thickBot="1">
+    <row r="144" spans="1:6" ht="18" thickBot="1">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -8092,7 +8191,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="42" thickBot="1">
+    <row r="145" spans="1:6" ht="18" thickBot="1">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -8112,7 +8211,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="28.2" thickBot="1">
+    <row r="146" spans="1:6" ht="18" thickBot="1">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -8132,7 +8231,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="28.2" thickBot="1">
+    <row r="147" spans="1:6" ht="18" thickBot="1">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -8152,7 +8251,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="28.2" thickBot="1">
+    <row r="148" spans="1:6" ht="18" thickBot="1">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -8172,7 +8271,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="28.2" thickBot="1">
+    <row r="149" spans="1:6" ht="18" thickBot="1">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -8192,7 +8291,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="28.2" thickBot="1">
+    <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -8232,7 +8331,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="28.2" thickBot="1">
+    <row r="152" spans="1:6" ht="18" thickBot="1">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -8252,7 +8351,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="28.2" thickBot="1">
+    <row r="153" spans="1:6" ht="18" thickBot="1">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -8272,7 +8371,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="28.2" thickBot="1">
+    <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -8292,7 +8391,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="28.2" thickBot="1">
+    <row r="155" spans="1:6" ht="18" thickBot="1">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -8312,7 +8411,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="28.2" thickBot="1">
+    <row r="156" spans="1:6" ht="18" thickBot="1">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -8332,7 +8431,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.2" thickBot="1">
+    <row r="157" spans="1:6" ht="18" thickBot="1">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -8352,7 +8451,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="28.2" thickBot="1">
+    <row r="158" spans="1:6" ht="18" thickBot="1">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -8372,7 +8471,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="28.2" thickBot="1">
+    <row r="159" spans="1:6" ht="18" thickBot="1">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -8392,7 +8491,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="28.2" thickBot="1">
+    <row r="160" spans="1:6" ht="18" thickBot="1">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -8412,7 +8511,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="28.2" thickBot="1">
+    <row r="161" spans="1:6" ht="18" thickBot="1">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -8432,7 +8531,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="28.2" thickBot="1">
+    <row r="162" spans="1:6" ht="18" thickBot="1">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -8452,7 +8551,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="28.2" thickBot="1">
+    <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -8472,7 +8571,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="28.2" thickBot="1">
+    <row r="164" spans="1:6" ht="18" thickBot="1">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -8492,7 +8591,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="28.2" thickBot="1">
+    <row r="165" spans="1:6" ht="18" thickBot="1">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -8512,7 +8611,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="28.2" thickBot="1">
+    <row r="166" spans="1:6" ht="18" thickBot="1">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -8552,7 +8651,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="28.2" thickBot="1">
+    <row r="168" spans="1:6" ht="18" thickBot="1">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -8572,7 +8671,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="28.2" thickBot="1">
+    <row r="169" spans="1:6" ht="18" thickBot="1">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -8592,7 +8691,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="28.2" thickBot="1">
+    <row r="170" spans="1:6" ht="18" thickBot="1">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -8612,7 +8711,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="28.2" thickBot="1">
+    <row r="171" spans="1:6" ht="18" thickBot="1">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -8632,7 +8731,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="28.2" thickBot="1">
+    <row r="172" spans="1:6" ht="18" thickBot="1">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -8652,7 +8751,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="28.2" thickBot="1">
+    <row r="173" spans="1:6" ht="18" thickBot="1">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -8712,7 +8811,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="28.2" thickBot="1">
+    <row r="176" spans="1:6" ht="18" thickBot="1">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -8732,7 +8831,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="28.2" thickBot="1">
+    <row r="177" spans="1:6" ht="18" thickBot="1">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -8752,7 +8851,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="28.2" thickBot="1">
+    <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -8792,7 +8891,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="28.2" thickBot="1">
+    <row r="180" spans="1:6" ht="18" thickBot="1">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -8812,7 +8911,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="28.2" thickBot="1">
+    <row r="181" spans="1:6" ht="18" thickBot="1">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -8852,7 +8951,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="28.2" thickBot="1">
+    <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -8872,7 +8971,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="28.2" thickBot="1">
+    <row r="184" spans="1:6" ht="18" thickBot="1">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -8892,7 +8991,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="28.2" thickBot="1">
+    <row r="185" spans="1:6" ht="18" thickBot="1">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -8912,7 +9011,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="28.2" thickBot="1">
+    <row r="186" spans="1:6" ht="18" thickBot="1">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -8932,7 +9031,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="28.2" thickBot="1">
+    <row r="187" spans="1:6" ht="18" thickBot="1">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -8952,7 +9051,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="28.2" thickBot="1">
+    <row r="188" spans="1:6" ht="18" thickBot="1">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -8992,7 +9091,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="28.2" thickBot="1">
+    <row r="190" spans="1:6" ht="18" thickBot="1">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -9012,7 +9111,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="28.2" thickBot="1">
+    <row r="191" spans="1:6" ht="18" thickBot="1">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -9032,7 +9131,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="28.2" thickBot="1">
+    <row r="192" spans="1:6" ht="18" thickBot="1">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -9072,7 +9171,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="28.2" thickBot="1">
+    <row r="194" spans="1:6" ht="18" thickBot="1">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -9092,7 +9191,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="28.2" thickBot="1">
+    <row r="195" spans="1:6" ht="18" thickBot="1">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -9112,7 +9211,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="28.2" thickBot="1">
+    <row r="196" spans="1:6" ht="18" thickBot="1">
       <c r="A196" s="4">
         <v>195</v>
       </c>
@@ -9132,7 +9231,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="28.2" thickBot="1">
+    <row r="197" spans="1:6" ht="18" thickBot="1">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -9152,7 +9251,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="28.2" thickBot="1">
+    <row r="198" spans="1:6" ht="18" thickBot="1">
       <c r="A198" s="4">
         <v>197</v>
       </c>
@@ -9172,7 +9271,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="28.2" thickBot="1">
+    <row r="199" spans="1:6" ht="18" thickBot="1">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -9192,7 +9291,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="28.2" thickBot="1">
+    <row r="200" spans="1:6" ht="18" thickBot="1">
       <c r="A200" s="4">
         <v>199</v>
       </c>
@@ -9212,7 +9311,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="28.2" thickBot="1">
+    <row r="201" spans="1:6" ht="18" thickBot="1">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -9252,7 +9351,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="28.2" thickBot="1">
+    <row r="203" spans="1:6" ht="18" thickBot="1">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -9272,7 +9371,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="28.2" thickBot="1">
+    <row r="204" spans="1:6" ht="18" thickBot="1">
       <c r="A204" s="4">
         <v>203</v>
       </c>
@@ -9312,7 +9411,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="28.2" thickBot="1">
+    <row r="206" spans="1:6" ht="18" thickBot="1">
       <c r="A206" s="4">
         <v>205</v>
       </c>
@@ -9332,7 +9431,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="28.2" thickBot="1">
+    <row r="207" spans="1:6" ht="18" thickBot="1">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -9352,7 +9451,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="28.2" thickBot="1">
+    <row r="208" spans="1:6" ht="18" thickBot="1">
       <c r="A208" s="4">
         <v>207</v>
       </c>
@@ -9372,7 +9471,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="28.2" thickBot="1">
+    <row r="209" spans="1:6" ht="18" thickBot="1">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -9392,7 +9491,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="28.2" thickBot="1">
+    <row r="210" spans="1:6" ht="18" thickBot="1">
       <c r="A210" s="4">
         <v>209</v>
       </c>
@@ -9412,7 +9511,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="28.2" thickBot="1">
+    <row r="211" spans="1:6" ht="18" thickBot="1">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -9432,7 +9531,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="28.2" thickBot="1">
+    <row r="212" spans="1:6" ht="18" thickBot="1">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -9472,7 +9571,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="28.2" thickBot="1">
+    <row r="214" spans="1:6" ht="18" thickBot="1">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -9492,7 +9591,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="28.2" thickBot="1">
+    <row r="215" spans="1:6" ht="18" thickBot="1">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -9532,7 +9631,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="28.2" thickBot="1">
+    <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -9552,7 +9651,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="28.2" thickBot="1">
+    <row r="218" spans="1:6" ht="18" thickBot="1">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -9572,7 +9671,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="28.2" thickBot="1">
+    <row r="219" spans="1:6" ht="18" thickBot="1">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -9632,7 +9731,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="28.2" thickBot="1">
+    <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -9652,7 +9751,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="42" thickBot="1">
+    <row r="223" spans="1:6" ht="18" thickBot="1">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -9672,7 +9771,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="28.2" thickBot="1">
+    <row r="224" spans="1:6" ht="18" thickBot="1">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -9692,7 +9791,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="28.2" thickBot="1">
+    <row r="225" spans="1:6" ht="18" thickBot="1">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -9712,7 +9811,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="28.2" thickBot="1">
+    <row r="226" spans="1:6" ht="18" thickBot="1">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -9732,7 +9831,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="28.2" thickBot="1">
+    <row r="227" spans="1:6" ht="18" thickBot="1">
       <c r="A227" s="4">
         <v>226</v>
       </c>
@@ -9812,7 +9911,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="28.2" thickBot="1">
+    <row r="231" spans="1:6" ht="18" thickBot="1">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -9832,7 +9931,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="28.2" thickBot="1">
+    <row r="232" spans="1:6" ht="18" thickBot="1">
       <c r="A232" s="4">
         <v>231</v>
       </c>
@@ -9852,7 +9951,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="28.2" thickBot="1">
+    <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="A233" s="4">
         <v>232</v>
       </c>
@@ -9872,7 +9971,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="28.2" thickBot="1">
+    <row r="234" spans="1:6" ht="18" thickBot="1">
       <c r="A234" s="4">
         <v>233</v>
       </c>
@@ -9892,7 +9991,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="28.2" thickBot="1">
+    <row r="235" spans="1:6" ht="18" thickBot="1">
       <c r="A235" s="4">
         <v>234</v>
       </c>
@@ -9912,7 +10011,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="28.2" thickBot="1">
+    <row r="236" spans="1:6" ht="18" thickBot="1">
       <c r="A236" s="4">
         <v>235</v>
       </c>
@@ -9932,7 +10031,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="28.2" thickBot="1">
+    <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="A237" s="4">
         <v>236</v>
       </c>
@@ -10012,7 +10111,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="28.2" thickBot="1">
+    <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="A241" s="4">
         <v>240</v>
       </c>
@@ -10032,7 +10131,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="28.2" thickBot="1">
+    <row r="242" spans="1:6" ht="18" thickBot="1">
       <c r="A242" s="4">
         <v>241</v>
       </c>
@@ -10052,7 +10151,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="28.2" thickBot="1">
+    <row r="243" spans="1:6" ht="18" thickBot="1">
       <c r="A243" s="4">
         <v>242</v>
       </c>
@@ -10112,7 +10211,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="28.2" thickBot="1">
+    <row r="246" spans="1:6" ht="18" thickBot="1">
       <c r="A246" s="4">
         <v>245</v>
       </c>
@@ -10132,7 +10231,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="28.2" thickBot="1">
+    <row r="247" spans="1:6" ht="18" thickBot="1">
       <c r="A247" s="4">
         <v>246</v>
       </c>
@@ -10152,7 +10251,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="28.2" thickBot="1">
+    <row r="248" spans="1:6" ht="18" thickBot="1">
       <c r="A248" s="4">
         <v>247</v>
       </c>
@@ -10172,7 +10271,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="28.2" thickBot="1">
+    <row r="249" spans="1:6" ht="18" thickBot="1">
       <c r="A249" s="4">
         <v>248</v>
       </c>
@@ -10192,7 +10291,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="28.2" thickBot="1">
+    <row r="250" spans="1:6" ht="18" thickBot="1">
       <c r="A250" s="4">
         <v>249</v>
       </c>
@@ -10252,7 +10351,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="28.2" thickBot="1">
+    <row r="253" spans="1:6" ht="18" thickBot="1">
       <c r="A253" s="4">
         <v>252</v>
       </c>
@@ -10272,7 +10371,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="28.2" thickBot="1">
+    <row r="254" spans="1:6" ht="18" thickBot="1">
       <c r="A254" s="4">
         <v>253</v>
       </c>
@@ -10292,7 +10391,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="28.2" thickBot="1">
+    <row r="255" spans="1:6" ht="18" thickBot="1">
       <c r="A255" s="4">
         <v>254</v>
       </c>
@@ -10312,7 +10411,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="28.2" thickBot="1">
+    <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="A256" s="4">
         <v>255</v>
       </c>
@@ -10332,7 +10431,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="28.2" thickBot="1">
+    <row r="257" spans="1:6" ht="18" thickBot="1">
       <c r="A257" s="4">
         <v>256</v>
       </c>
@@ -10352,7 +10451,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="28.2" thickBot="1">
+    <row r="258" spans="1:6" ht="18" thickBot="1">
       <c r="A258" s="4">
         <v>257</v>
       </c>
@@ -10372,7 +10471,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="28.2" thickBot="1">
+    <row r="259" spans="1:6" ht="18" thickBot="1">
       <c r="A259" s="4">
         <v>258</v>
       </c>
@@ -10392,7 +10491,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="28.2" thickBot="1">
+    <row r="260" spans="1:6" ht="18" thickBot="1">
       <c r="A260" s="4">
         <v>259</v>
       </c>
@@ -10412,7 +10511,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="28.2" thickBot="1">
+    <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="A261" s="4">
         <v>260</v>
       </c>
@@ -10432,7 +10531,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="28.2" thickBot="1">
+    <row r="262" spans="1:6" ht="18" thickBot="1">
       <c r="A262" s="4">
         <v>261</v>
       </c>
@@ -10452,7 +10551,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="28.2" thickBot="1">
+    <row r="263" spans="1:6" ht="18" thickBot="1">
       <c r="A263" s="4">
         <v>262</v>
       </c>
@@ -10492,7 +10591,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="28.2" thickBot="1">
+    <row r="265" spans="1:6" ht="18" thickBot="1">
       <c r="A265" s="4">
         <v>264</v>
       </c>
@@ -10512,7 +10611,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="28.2" thickBot="1">
+    <row r="266" spans="1:6" ht="18" thickBot="1">
       <c r="A266" s="4">
         <v>265</v>
       </c>
@@ -10552,7 +10651,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="28.2" thickBot="1">
+    <row r="268" spans="1:6" ht="18" thickBot="1">
       <c r="A268" s="4">
         <v>267</v>
       </c>
@@ -10572,7 +10671,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="28.2" thickBot="1">
+    <row r="269" spans="1:6" ht="18" thickBot="1">
       <c r="A269" s="4">
         <v>268</v>
       </c>
@@ -10592,7 +10691,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="28.2" thickBot="1">
+    <row r="270" spans="1:6" ht="18" thickBot="1">
       <c r="A270" s="4">
         <v>269</v>
       </c>
@@ -10612,7 +10711,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="28.2" thickBot="1">
+    <row r="271" spans="1:6" ht="18" thickBot="1">
       <c r="A271" s="4">
         <v>270</v>
       </c>
@@ -10632,7 +10731,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="28.2" thickBot="1">
+    <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="A272" s="4">
         <v>271</v>
       </c>
@@ -10672,7 +10771,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="28.2" thickBot="1">
+    <row r="274" spans="1:6" ht="18" thickBot="1">
       <c r="A274" s="4">
         <v>273</v>
       </c>
@@ -10692,7 +10791,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="28.2" thickBot="1">
+    <row r="275" spans="1:6" ht="18" thickBot="1">
       <c r="A275" s="4">
         <v>274</v>
       </c>
@@ -10732,7 +10831,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="28.2" thickBot="1">
+    <row r="277" spans="1:6" ht="18" thickBot="1">
       <c r="A277" s="4">
         <v>276</v>
       </c>
@@ -10752,7 +10851,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="28.2" thickBot="1">
+    <row r="278" spans="1:6" ht="18" thickBot="1">
       <c r="A278" s="4">
         <v>277</v>
       </c>
@@ -10772,7 +10871,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="28.2" thickBot="1">
+    <row r="279" spans="1:6" ht="18" thickBot="1">
       <c r="A279" s="4">
         <v>278</v>
       </c>
@@ -10792,7 +10891,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="28.2" thickBot="1">
+    <row r="280" spans="1:6" ht="18" thickBot="1">
       <c r="A280" s="4">
         <v>279</v>
       </c>
@@ -10812,7 +10911,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="28.2" thickBot="1">
+    <row r="281" spans="1:6" ht="18" thickBot="1">
       <c r="A281" s="4">
         <v>280</v>
       </c>
@@ -10832,7 +10931,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="28.2" thickBot="1">
+    <row r="282" spans="1:6" ht="18" thickBot="1">
       <c r="A282" s="4">
         <v>281</v>
       </c>
@@ -10852,7 +10951,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="28.2" thickBot="1">
+    <row r="283" spans="1:6" ht="18" thickBot="1">
       <c r="A283" s="4">
         <v>282</v>
       </c>
@@ -10872,7 +10971,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="28.2" thickBot="1">
+    <row r="284" spans="1:6" ht="18" thickBot="1">
       <c r="A284" s="4">
         <v>283</v>
       </c>
@@ -10892,7 +10991,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="28.2" thickBot="1">
+    <row r="285" spans="1:6" ht="18" thickBot="1">
       <c r="A285" s="4">
         <v>284</v>
       </c>
@@ -10912,7 +11011,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="28.2" thickBot="1">
+    <row r="286" spans="1:6" ht="18" thickBot="1">
       <c r="A286" s="4">
         <v>285</v>
       </c>
@@ -10932,7 +11031,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="28.2" thickBot="1">
+    <row r="287" spans="1:6" ht="18" thickBot="1">
       <c r="A287" s="4">
         <v>286</v>
       </c>
@@ -10952,7 +11051,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="28.2" thickBot="1">
+    <row r="288" spans="1:6" ht="18" thickBot="1">
       <c r="A288" s="4">
         <v>287</v>
       </c>
@@ -10972,7 +11071,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="28.2" thickBot="1">
+    <row r="289" spans="1:6" ht="18" thickBot="1">
       <c r="A289" s="4">
         <v>288</v>
       </c>
@@ -10992,7 +11091,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="28.2" thickBot="1">
+    <row r="290" spans="1:6" ht="18" thickBot="1">
       <c r="A290" s="4">
         <v>289</v>
       </c>
@@ -11012,7 +11111,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="28.2" thickBot="1">
+    <row r="291" spans="1:6" ht="18" thickBot="1">
       <c r="A291" s="4">
         <v>290</v>
       </c>
@@ -11032,7 +11131,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="28.2" thickBot="1">
+    <row r="292" spans="1:6" ht="18" thickBot="1">
       <c r="A292" s="4">
         <v>291</v>
       </c>
@@ -11052,7 +11151,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="28.2" thickBot="1">
+    <row r="293" spans="1:6" ht="18" thickBot="1">
       <c r="A293" s="4">
         <v>292</v>
       </c>
@@ -11072,7 +11171,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="28.2" thickBot="1">
+    <row r="294" spans="1:6" ht="18" thickBot="1">
       <c r="A294" s="4">
         <v>293</v>
       </c>
@@ -11092,7 +11191,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="28.2" thickBot="1">
+    <row r="295" spans="1:6" ht="18" thickBot="1">
       <c r="A295" s="4">
         <v>294</v>
       </c>
@@ -11112,7 +11211,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="28.2" thickBot="1">
+    <row r="296" spans="1:6" ht="18" thickBot="1">
       <c r="A296" s="4">
         <v>295</v>
       </c>
@@ -11132,7 +11231,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="28.2" thickBot="1">
+    <row r="297" spans="1:6" ht="18" thickBot="1">
       <c r="A297" s="4">
         <v>296</v>
       </c>
@@ -11152,7 +11251,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="28.2" thickBot="1">
+    <row r="298" spans="1:6" ht="18" thickBot="1">
       <c r="A298" s="4">
         <v>297</v>
       </c>
@@ -11192,7 +11291,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="28.2" thickBot="1">
+    <row r="300" spans="1:6" ht="18" thickBot="1">
       <c r="A300" s="4">
         <v>299</v>
       </c>
@@ -11212,7 +11311,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="28.2" thickBot="1">
+    <row r="301" spans="1:6" ht="18" thickBot="1">
       <c r="A301" s="4">
         <v>300</v>
       </c>
@@ -11232,7 +11331,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="28.2" thickBot="1">
+    <row r="302" spans="1:6" ht="18" thickBot="1">
       <c r="A302" s="4">
         <v>301</v>
       </c>
@@ -11252,7 +11351,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="28.2" thickBot="1">
+    <row r="303" spans="1:6" ht="18" thickBot="1">
       <c r="A303" s="4">
         <v>302</v>
       </c>
@@ -11272,7 +11371,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="28.2" thickBot="1">
+    <row r="304" spans="1:6" ht="18" thickBot="1">
       <c r="A304" s="4">
         <v>303</v>
       </c>
@@ -11292,7 +11391,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="28.2" thickBot="1">
+    <row r="305" spans="1:6" ht="18" thickBot="1">
       <c r="A305" s="4">
         <v>304</v>
       </c>
@@ -11312,7 +11411,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="28.2" thickBot="1">
+    <row r="306" spans="1:6" ht="18" thickBot="1">
       <c r="A306" s="4">
         <v>305</v>
       </c>
@@ -11332,7 +11431,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="28.2" thickBot="1">
+    <row r="307" spans="1:6" ht="18" thickBot="1">
       <c r="A307" s="4">
         <v>306</v>
       </c>
@@ -11352,7 +11451,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="28.2" thickBot="1">
+    <row r="308" spans="1:6" ht="18" thickBot="1">
       <c r="A308" s="4">
         <v>307</v>
       </c>
@@ -11372,7 +11471,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="28.2" thickBot="1">
+    <row r="309" spans="1:6" ht="18" thickBot="1">
       <c r="A309" s="4">
         <v>308</v>
       </c>
@@ -11392,7 +11491,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="28.2" thickBot="1">
+    <row r="310" spans="1:6" ht="18" thickBot="1">
       <c r="A310" s="4">
         <v>309</v>
       </c>
@@ -11412,7 +11511,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="28.2" thickBot="1">
+    <row r="311" spans="1:6" ht="18" thickBot="1">
       <c r="A311" s="4">
         <v>310</v>
       </c>
@@ -11432,7 +11531,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="28.2" thickBot="1">
+    <row r="312" spans="1:6" ht="18" thickBot="1">
       <c r="A312" s="4">
         <v>311</v>
       </c>
@@ -11472,7 +11571,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="28.2" thickBot="1">
+    <row r="314" spans="1:6" ht="18" thickBot="1">
       <c r="A314" s="4">
         <v>313</v>
       </c>
@@ -11492,7 +11591,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="28.2" thickBot="1">
+    <row r="315" spans="1:6" ht="18" thickBot="1">
       <c r="A315" s="4">
         <v>314</v>
       </c>
@@ -11512,7 +11611,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="28.2" thickBot="1">
+    <row r="316" spans="1:6" ht="18" thickBot="1">
       <c r="A316" s="4">
         <v>315</v>
       </c>
@@ -11532,7 +11631,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="28.2" thickBot="1">
+    <row r="317" spans="1:6" ht="18" thickBot="1">
       <c r="A317" s="4">
         <v>316</v>
       </c>
@@ -11552,7 +11651,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="28.2" thickBot="1">
+    <row r="318" spans="1:6" ht="18" thickBot="1">
       <c r="A318" s="4">
         <v>317</v>
       </c>
@@ -11612,7 +11711,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="28.2" thickBot="1">
+    <row r="321" spans="1:6" ht="18" thickBot="1">
       <c r="A321" s="4">
         <v>320</v>
       </c>
@@ -11632,7 +11731,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="28.2" thickBot="1">
+    <row r="322" spans="1:6" ht="18" thickBot="1">
       <c r="A322" s="4">
         <v>321</v>
       </c>
@@ -11652,7 +11751,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="28.2" thickBot="1">
+    <row r="323" spans="1:6" ht="18" thickBot="1">
       <c r="A323" s="4">
         <v>322</v>
       </c>
@@ -11672,7 +11771,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="28.2" thickBot="1">
+    <row r="324" spans="1:6" ht="18" thickBot="1">
       <c r="A324" s="4">
         <v>323</v>
       </c>
@@ -11692,7 +11791,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="28.2" thickBot="1">
+    <row r="325" spans="1:6" ht="18" thickBot="1">
       <c r="A325" s="4">
         <v>324</v>
       </c>
@@ -11712,7 +11811,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="28.2" thickBot="1">
+    <row r="326" spans="1:6" ht="18" thickBot="1">
       <c r="A326" s="4">
         <v>325</v>
       </c>
@@ -11732,7 +11831,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="28.2" thickBot="1">
+    <row r="327" spans="1:6" ht="18" thickBot="1">
       <c r="A327" s="4">
         <v>326</v>
       </c>
@@ -11752,7 +11851,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="28.2" thickBot="1">
+    <row r="328" spans="1:6" ht="18" thickBot="1">
       <c r="A328" s="4">
         <v>327</v>
       </c>
@@ -11792,7 +11891,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="28.2" thickBot="1">
+    <row r="330" spans="1:6" ht="18" thickBot="1">
       <c r="A330" s="4">
         <v>329</v>
       </c>
@@ -11832,7 +11931,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="28.2" thickBot="1">
+    <row r="332" spans="1:6" ht="18" thickBot="1">
       <c r="A332" s="4">
         <v>331</v>
       </c>
@@ -11852,7 +11951,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="28.2" thickBot="1">
+    <row r="333" spans="1:6" ht="18" thickBot="1">
       <c r="A333" s="4">
         <v>332</v>
       </c>
@@ -11872,7 +11971,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="28.2" thickBot="1">
+    <row r="334" spans="1:6" ht="18" thickBot="1">
       <c r="A334" s="4">
         <v>333</v>
       </c>
@@ -11932,7 +12031,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="28.2" thickBot="1">
+    <row r="337" spans="1:6" ht="18" thickBot="1">
       <c r="A337" s="4">
         <v>336</v>
       </c>
@@ -11952,7 +12051,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="28.2" thickBot="1">
+    <row r="338" spans="1:6" ht="18" thickBot="1">
       <c r="A338" s="4">
         <v>337</v>
       </c>
@@ -11972,7 +12071,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="28.2" thickBot="1">
+    <row r="339" spans="1:6" ht="18" thickBot="1">
       <c r="A339" s="4">
         <v>338</v>
       </c>
@@ -11992,7 +12091,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="28.2" thickBot="1">
+    <row r="340" spans="1:6" ht="18" thickBot="1">
       <c r="A340" s="4">
         <v>339</v>
       </c>
@@ -12012,7 +12111,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="28.2" thickBot="1">
+    <row r="341" spans="1:6" ht="18" thickBot="1">
       <c r="A341" s="4">
         <v>340</v>
       </c>
@@ -12032,7 +12131,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="28.2" thickBot="1">
+    <row r="342" spans="1:6" ht="18" thickBot="1">
       <c r="A342" s="4">
         <v>341</v>
       </c>
@@ -12092,7 +12191,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="28.2" thickBot="1">
+    <row r="345" spans="1:6" ht="18" thickBot="1">
       <c r="A345" s="4">
         <v>344</v>
       </c>
@@ -12112,7 +12211,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="28.2" thickBot="1">
+    <row r="346" spans="1:6" ht="18" thickBot="1">
       <c r="A346" s="4">
         <v>345</v>
       </c>
@@ -12132,7 +12231,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="28.2" thickBot="1">
+    <row r="347" spans="1:6" ht="18" thickBot="1">
       <c r="A347" s="4">
         <v>346</v>
       </c>
@@ -12152,7 +12251,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="28.2" thickBot="1">
+    <row r="348" spans="1:6" ht="18" thickBot="1">
       <c r="A348" s="4">
         <v>347</v>
       </c>
@@ -12172,7 +12271,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="28.2" thickBot="1">
+    <row r="349" spans="1:6" ht="18" thickBot="1">
       <c r="A349" s="4">
         <v>348</v>
       </c>
@@ -12192,7 +12291,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="28.2" thickBot="1">
+    <row r="350" spans="1:6" ht="18" thickBot="1">
       <c r="A350" s="4">
         <v>349</v>
       </c>
@@ -12212,7 +12311,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="28.2" thickBot="1">
+    <row r="351" spans="1:6" ht="18" thickBot="1">
       <c r="A351" s="4">
         <v>350</v>
       </c>
@@ -12232,7 +12331,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="28.2" thickBot="1">
+    <row r="352" spans="1:6" ht="18" thickBot="1">
       <c r="A352" s="4">
         <v>351</v>
       </c>
@@ -12252,7 +12351,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="28.2" thickBot="1">
+    <row r="353" spans="1:6" ht="18" thickBot="1">
       <c r="A353" s="4">
         <v>352</v>
       </c>
@@ -12272,7 +12371,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="28.2" thickBot="1">
+    <row r="354" spans="1:6" ht="18" thickBot="1">
       <c r="A354" s="4">
         <v>353</v>
       </c>
@@ -12292,7 +12391,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="28.2" thickBot="1">
+    <row r="355" spans="1:6" ht="18" thickBot="1">
       <c r="A355" s="4">
         <v>354</v>
       </c>
@@ -12312,7 +12411,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="28.2" thickBot="1">
+    <row r="356" spans="1:6" ht="18" thickBot="1">
       <c r="A356" s="4">
         <v>355</v>
       </c>
@@ -12332,7 +12431,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="28.2" thickBot="1">
+    <row r="357" spans="1:6" ht="18" thickBot="1">
       <c r="A357" s="4">
         <v>356</v>
       </c>
@@ -12352,7 +12451,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="28.2" thickBot="1">
+    <row r="358" spans="1:6" ht="18" thickBot="1">
       <c r="A358" s="4">
         <v>357</v>
       </c>
@@ -12372,7 +12471,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="28.2" thickBot="1">
+    <row r="359" spans="1:6" ht="18" thickBot="1">
       <c r="A359" s="4">
         <v>358</v>
       </c>
@@ -12412,7 +12511,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="105" thickBot="1">
+    <row r="361" spans="1:6" ht="18" thickBot="1">
       <c r="A361" s="4">
         <v>360</v>
       </c>
@@ -12432,7 +12531,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="27" thickBot="1">
+    <row r="362" spans="1:6" ht="18" thickBot="1">
       <c r="A362" s="4">
         <v>361</v>
       </c>
@@ -12452,7 +12551,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="27" thickBot="1">
+    <row r="363" spans="1:6" ht="18" thickBot="1">
       <c r="A363" s="4">
         <v>362</v>
       </c>
@@ -12472,7 +12571,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="27" thickBot="1">
+    <row r="364" spans="1:6" ht="18" thickBot="1">
       <c r="A364" s="4">
         <v>363</v>
       </c>
@@ -12492,7 +12591,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="27" thickBot="1">
+    <row r="365" spans="1:6" ht="18" thickBot="1">
       <c r="A365" s="4">
         <v>364</v>
       </c>
@@ -12652,7 +12751,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="27" thickBot="1">
+    <row r="373" spans="1:6" ht="18" thickBot="1">
       <c r="A373" s="4">
         <v>372</v>
       </c>
@@ -12672,7 +12771,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="27" thickBot="1">
+    <row r="374" spans="1:6" ht="18" thickBot="1">
       <c r="A374" s="4">
         <v>373</v>
       </c>
@@ -12692,7 +12791,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="27" thickBot="1">
+    <row r="375" spans="1:6" ht="18" thickBot="1">
       <c r="A375" s="4">
         <v>374</v>
       </c>
@@ -12812,7 +12911,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="27" thickBot="1">
+    <row r="381" spans="1:6" ht="18" thickBot="1">
       <c r="A381" s="4">
         <v>380</v>
       </c>
@@ -12872,7 +12971,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="27" thickBot="1">
+    <row r="384" spans="1:6" ht="18" thickBot="1">
       <c r="A384" s="4">
         <v>383</v>
       </c>
@@ -12912,7 +13011,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="27" thickBot="1">
+    <row r="386" spans="1:6" ht="18" thickBot="1">
       <c r="A386" s="4">
         <v>385</v>
       </c>
@@ -12932,7 +13031,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="27" thickBot="1">
+    <row r="387" spans="1:6" ht="18" thickBot="1">
       <c r="A387" s="4">
         <v>386</v>
       </c>
@@ -12992,7 +13091,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="27" thickBot="1">
+    <row r="390" spans="1:6" ht="18" thickBot="1">
       <c r="A390" s="4">
         <v>389</v>
       </c>
@@ -13012,7 +13111,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="27" thickBot="1">
+    <row r="391" spans="1:6" ht="18" thickBot="1">
       <c r="A391" s="4">
         <v>390</v>
       </c>
@@ -13032,7 +13131,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="27" thickBot="1">
+    <row r="392" spans="1:6" ht="18" thickBot="1">
       <c r="A392" s="4">
         <v>391</v>
       </c>
@@ -13052,7 +13151,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="27" thickBot="1">
+    <row r="393" spans="1:6" ht="18" thickBot="1">
       <c r="A393" s="4">
         <v>392</v>
       </c>
@@ -13172,7 +13271,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="105" thickBot="1">
+    <row r="399" spans="1:6" ht="18" thickBot="1">
       <c r="A399" s="4">
         <v>398</v>
       </c>
@@ -13192,7 +13291,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="27" thickBot="1">
+    <row r="400" spans="1:6" ht="18" thickBot="1">
       <c r="A400" s="4">
         <v>399</v>
       </c>
@@ -13212,7 +13311,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="27" thickBot="1">
+    <row r="401" spans="1:6" ht="18" thickBot="1">
       <c r="A401" s="4">
         <v>400</v>
       </c>
@@ -13312,7 +13411,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="27" thickBot="1">
+    <row r="406" spans="1:6" ht="18" thickBot="1">
       <c r="A406" s="4">
         <v>405</v>
       </c>
@@ -13332,7 +13431,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="27" thickBot="1">
+    <row r="407" spans="1:6" ht="18" thickBot="1">
       <c r="A407" s="4">
         <v>406</v>
       </c>
@@ -13352,7 +13451,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="27" thickBot="1">
+    <row r="408" spans="1:6" ht="18" thickBot="1">
       <c r="A408" s="4">
         <v>407</v>
       </c>
@@ -13392,7 +13491,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="27" thickBot="1">
+    <row r="410" spans="1:6" ht="18" thickBot="1">
       <c r="A410" s="4">
         <v>409</v>
       </c>
@@ -13412,7 +13511,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="27" thickBot="1">
+    <row r="411" spans="1:6" ht="18" thickBot="1">
       <c r="A411" s="4">
         <v>410</v>
       </c>
@@ -13432,7 +13531,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="27" thickBot="1">
+    <row r="412" spans="1:6" ht="18" thickBot="1">
       <c r="A412" s="4">
         <v>411</v>
       </c>
@@ -13452,7 +13551,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="27" thickBot="1">
+    <row r="413" spans="1:6" ht="18" thickBot="1">
       <c r="A413" s="4">
         <v>412</v>
       </c>
@@ -13472,7 +13571,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="27" thickBot="1">
+    <row r="414" spans="1:6" ht="18" thickBot="1">
       <c r="A414" s="4">
         <v>413</v>
       </c>
@@ -13492,7 +13591,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="27" thickBot="1">
+    <row r="415" spans="1:6" ht="18" thickBot="1">
       <c r="A415" s="4">
         <v>414</v>
       </c>
@@ -13512,7 +13611,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="27" thickBot="1">
+    <row r="416" spans="1:6" ht="18" thickBot="1">
       <c r="A416" s="4">
         <v>415</v>
       </c>
@@ -13552,7 +13651,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="27" thickBot="1">
+    <row r="418" spans="1:6" ht="18" thickBot="1">
       <c r="A418" s="4">
         <v>417</v>
       </c>
@@ -13592,7 +13691,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="27" thickBot="1">
+    <row r="420" spans="1:6" ht="18" thickBot="1">
       <c r="A420" s="4">
         <v>419</v>
       </c>
@@ -13652,7 +13751,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="105" thickBot="1">
+    <row r="423" spans="1:6" ht="18" thickBot="1">
       <c r="A423" s="4">
         <v>422</v>
       </c>
@@ -13672,7 +13771,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="27" thickBot="1">
+    <row r="424" spans="1:6" ht="18" thickBot="1">
       <c r="A424" s="4">
         <v>423</v>
       </c>
@@ -13692,7 +13791,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="27" thickBot="1">
+    <row r="425" spans="1:6" ht="18" thickBot="1">
       <c r="A425" s="4">
         <v>424</v>
       </c>
@@ -13742,394 +13841,342 @@
       <c r="C427" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="D427" s="1"/>
+      <c r="D427" s="1" t="s">
+        <v>1558</v>
+      </c>
       <c r="E427" s="4">
         <v>7</v>
       </c>
-      <c r="F427" s="1"/>
+      <c r="F427" s="6" t="s">
+        <v>1559</v>
+      </c>
     </row>
     <row r="428" spans="1:6" ht="18" thickBot="1">
       <c r="A428" s="4">
         <v>427</v>
       </c>
       <c r="B428" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C428" s="1"/>
-      <c r="D428" s="1"/>
+        <v>1560</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>1562</v>
+      </c>
       <c r="E428" s="4">
         <v>7</v>
       </c>
-      <c r="F428" s="1"/>
+      <c r="F428" s="6" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="429" spans="1:6" ht="18" thickBot="1">
       <c r="A429" s="4">
         <v>428</v>
       </c>
       <c r="B429" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
+        <v>1560</v>
+      </c>
+      <c r="C429" s="17" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>1565</v>
+      </c>
       <c r="E429" s="4">
         <v>7</v>
       </c>
-      <c r="F429" s="1"/>
+      <c r="F429" s="6" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="430" spans="1:6" ht="18" thickBot="1">
       <c r="A430" s="4">
         <v>429</v>
       </c>
       <c r="B430" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C430" s="1"/>
-      <c r="D430" s="1"/>
+        <v>1560</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>1567</v>
+      </c>
       <c r="E430" s="4">
         <v>7</v>
       </c>
-      <c r="F430" s="1"/>
+      <c r="F430" s="6" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="431" spans="1:6" ht="18" thickBot="1">
       <c r="A431" s="4">
         <v>430</v>
       </c>
       <c r="B431" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C431" s="1"/>
-      <c r="D431" s="1"/>
+        <v>1568</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>1570</v>
+      </c>
       <c r="E431" s="4">
         <v>7</v>
       </c>
-      <c r="F431" s="1"/>
+      <c r="F431" s="6" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="432" spans="1:6" ht="18" thickBot="1">
       <c r="A432" s="4">
         <v>431</v>
       </c>
       <c r="B432" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C432" s="1"/>
-      <c r="D432" s="1"/>
+        <v>1568</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>1573</v>
+      </c>
       <c r="E432" s="4">
         <v>7</v>
       </c>
-      <c r="F432" s="1"/>
+      <c r="F432" s="6" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="433" spans="1:6" ht="18" thickBot="1">
       <c r="A433" s="4">
         <v>432</v>
       </c>
       <c r="B433" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C433" s="1"/>
-      <c r="D433" s="1"/>
+        <v>1553</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1555</v>
+      </c>
       <c r="E433" s="4">
         <v>7</v>
       </c>
-      <c r="F433" s="1"/>
+      <c r="F433" s="6" t="s">
+        <v>1556</v>
+      </c>
     </row>
     <row r="434" spans="1:6" ht="18" thickBot="1">
       <c r="A434" s="4">
         <v>433</v>
       </c>
       <c r="B434" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C434" s="1"/>
-      <c r="D434" s="1"/>
+        <v>1575</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>1577</v>
+      </c>
       <c r="E434" s="4">
         <v>7</v>
       </c>
-      <c r="F434" s="1"/>
+      <c r="F434" s="6" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="435" spans="1:6" ht="18" thickBot="1">
       <c r="A435" s="4">
         <v>434</v>
       </c>
       <c r="B435" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C435" s="1"/>
-      <c r="D435" s="1"/>
+        <v>1579</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>1581</v>
+      </c>
       <c r="E435" s="4">
         <v>7</v>
       </c>
-      <c r="F435" s="1"/>
-    </row>
-    <row r="436" spans="1:6" ht="18" thickBot="1">
+      <c r="F435" s="6" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="27" thickBot="1">
       <c r="A436" s="4">
         <v>435</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C436" s="1"/>
-      <c r="D436" s="1"/>
+        <v>1583</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>1585</v>
+      </c>
       <c r="E436" s="4">
         <v>7</v>
       </c>
-      <c r="F436" s="1"/>
+      <c r="F436" s="6" t="s">
+        <v>1586</v>
+      </c>
     </row>
     <row r="437" spans="1:6" ht="18" thickBot="1">
-      <c r="A437" s="4">
-        <v>436</v>
-      </c>
-      <c r="B437" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A437" s="4"/>
+      <c r="B437" s="14"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
-      <c r="E437" s="4">
-        <v>7</v>
-      </c>
+      <c r="E437" s="4"/>
       <c r="F437" s="1"/>
     </row>
     <row r="438" spans="1:6" ht="18" thickBot="1">
-      <c r="A438" s="4">
-        <v>437</v>
-      </c>
-      <c r="B438" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A438" s="4"/>
+      <c r="B438" s="14"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
-      <c r="E438" s="4">
-        <v>7</v>
-      </c>
+      <c r="E438" s="4"/>
       <c r="F438" s="1"/>
     </row>
     <row r="439" spans="1:6" ht="18" thickBot="1">
-      <c r="A439" s="4">
-        <v>438</v>
-      </c>
-      <c r="B439" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A439" s="4"/>
+      <c r="B439" s="14"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
-      <c r="E439" s="4">
-        <v>7</v>
-      </c>
+      <c r="E439" s="4"/>
       <c r="F439" s="1"/>
     </row>
     <row r="440" spans="1:6" ht="18" thickBot="1">
-      <c r="A440" s="4">
-        <v>439</v>
-      </c>
-      <c r="B440" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A440" s="4"/>
+      <c r="B440" s="14"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
-      <c r="E440" s="4">
-        <v>7</v>
-      </c>
+      <c r="E440" s="4"/>
       <c r="F440" s="1"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
-      <c r="A441" s="4">
-        <v>440</v>
-      </c>
-      <c r="B441" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A441" s="4"/>
+      <c r="B441" s="14"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
-      <c r="E441" s="4">
-        <v>7</v>
-      </c>
+      <c r="E441" s="4"/>
       <c r="F441" s="1"/>
     </row>
     <row r="442" spans="1:6" ht="18" thickBot="1">
-      <c r="A442" s="4">
-        <v>441</v>
-      </c>
-      <c r="B442" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A442" s="4"/>
+      <c r="B442" s="14"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
-      <c r="E442" s="4">
-        <v>7</v>
-      </c>
+      <c r="E442" s="4"/>
       <c r="F442" s="1"/>
     </row>
     <row r="443" spans="1:6" ht="18" thickBot="1">
-      <c r="A443" s="4">
-        <v>442</v>
-      </c>
-      <c r="B443" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A443" s="4"/>
+      <c r="B443" s="14"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
-      <c r="E443" s="4">
-        <v>7</v>
-      </c>
+      <c r="E443" s="4"/>
       <c r="F443" s="1"/>
     </row>
     <row r="444" spans="1:6" ht="18" thickBot="1">
-      <c r="A444" s="4">
-        <v>443</v>
-      </c>
-      <c r="B444" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A444" s="4"/>
+      <c r="B444" s="14"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
-      <c r="E444" s="4">
-        <v>7</v>
-      </c>
+      <c r="E444" s="4"/>
       <c r="F444" s="1"/>
     </row>
     <row r="445" spans="1:6" ht="18" thickBot="1">
-      <c r="A445" s="4">
-        <v>444</v>
-      </c>
-      <c r="B445" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A445" s="4"/>
+      <c r="B445" s="14"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
-      <c r="E445" s="4">
-        <v>7</v>
-      </c>
+      <c r="E445" s="4"/>
       <c r="F445" s="1"/>
     </row>
     <row r="446" spans="1:6" ht="18" thickBot="1">
-      <c r="A446" s="4">
-        <v>445</v>
-      </c>
-      <c r="B446" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A446" s="4"/>
+      <c r="B446" s="14"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
-      <c r="E446" s="4">
-        <v>7</v>
-      </c>
+      <c r="E446" s="4"/>
       <c r="F446" s="1"/>
     </row>
     <row r="447" spans="1:6" ht="18" thickBot="1">
-      <c r="A447" s="4">
-        <v>446</v>
-      </c>
-      <c r="B447" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A447" s="4"/>
+      <c r="B447" s="14"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
-      <c r="E447" s="4">
-        <v>7</v>
-      </c>
+      <c r="E447" s="4"/>
       <c r="F447" s="1"/>
     </row>
     <row r="448" spans="1:6" ht="18" thickBot="1">
-      <c r="A448" s="4">
-        <v>447</v>
-      </c>
-      <c r="B448" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A448" s="4"/>
+      <c r="B448" s="14"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
-      <c r="E448" s="4">
-        <v>7</v>
-      </c>
+      <c r="E448" s="4"/>
       <c r="F448" s="1"/>
     </row>
     <row r="449" spans="1:6" ht="18" thickBot="1">
-      <c r="A449" s="4">
-        <v>448</v>
-      </c>
-      <c r="B449" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A449" s="4"/>
+      <c r="B449" s="14"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
-      <c r="E449" s="4">
-        <v>7</v>
-      </c>
+      <c r="E449" s="4"/>
       <c r="F449" s="1"/>
     </row>
     <row r="450" spans="1:6" ht="18" thickBot="1">
-      <c r="A450" s="4">
-        <v>449</v>
-      </c>
-      <c r="B450" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A450" s="4"/>
+      <c r="B450" s="14"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
-      <c r="E450" s="4">
-        <v>7</v>
-      </c>
+      <c r="E450" s="4"/>
       <c r="F450" s="1"/>
     </row>
     <row r="451" spans="1:6" ht="18" thickBot="1">
-      <c r="A451" s="4">
-        <v>450</v>
-      </c>
-      <c r="B451" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A451" s="4"/>
+      <c r="B451" s="14"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
-      <c r="E451" s="4">
-        <v>7</v>
-      </c>
+      <c r="E451" s="4"/>
       <c r="F451" s="1"/>
     </row>
     <row r="452" spans="1:6" ht="18" thickBot="1">
-      <c r="A452" s="4">
-        <v>451</v>
-      </c>
-      <c r="B452" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A452" s="4"/>
+      <c r="B452" s="14"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
-      <c r="E452" s="4">
-        <v>7</v>
-      </c>
+      <c r="E452" s="4"/>
       <c r="F452" s="1"/>
     </row>
     <row r="453" spans="1:6" ht="18" thickBot="1">
-      <c r="A453" s="4">
-        <v>452</v>
-      </c>
-      <c r="B453" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A453" s="4"/>
+      <c r="B453" s="14"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
-      <c r="E453" s="4">
-        <v>7</v>
-      </c>
+      <c r="E453" s="4"/>
       <c r="F453" s="1"/>
     </row>
     <row r="454" spans="1:6" ht="18" thickBot="1">
-      <c r="A454" s="4">
-        <v>453</v>
-      </c>
-      <c r="B454" s="14" t="s">
-        <v>1558</v>
-      </c>
+      <c r="A454" s="4"/>
+      <c r="B454" s="14"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
-      <c r="E454" s="4">
-        <v>7</v>
-      </c>
+      <c r="E454" s="4"/>
       <c r="F454" s="1"/>
     </row>
     <row r="455" spans="1:6" ht="18" thickBot="1">
-      <c r="A455" s="4">
-        <v>454</v>
-      </c>
+      <c r="A455" s="4"/>
       <c r="B455" s="14"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -14137,9 +14184,7 @@
       <c r="F455" s="1"/>
     </row>
     <row r="456" spans="1:6" ht="18" thickBot="1">
-      <c r="A456" s="4">
-        <v>455</v>
-      </c>
+      <c r="A456" s="4"/>
       <c r="B456" s="14"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -14147,9 +14192,7 @@
       <c r="F456" s="1"/>
     </row>
     <row r="457" spans="1:6" ht="18" thickBot="1">
-      <c r="A457" s="4">
-        <v>456</v>
-      </c>
+      <c r="A457" s="4"/>
       <c r="B457" s="14"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -14157,9 +14200,7 @@
       <c r="F457" s="1"/>
     </row>
     <row r="458" spans="1:6" ht="18" thickBot="1">
-      <c r="A458" s="4">
-        <v>457</v>
-      </c>
+      <c r="A458" s="4"/>
       <c r="B458" s="14"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -14167,9 +14208,7 @@
       <c r="F458" s="1"/>
     </row>
     <row r="459" spans="1:6" ht="18" thickBot="1">
-      <c r="A459" s="4">
-        <v>458</v>
-      </c>
+      <c r="A459" s="4"/>
       <c r="B459" s="14"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -14604,8 +14643,18 @@
     <hyperlink ref="F424" r:id="rId423"/>
     <hyperlink ref="F425" r:id="rId424"/>
     <hyperlink ref="F426" r:id="rId425"/>
+    <hyperlink ref="F427" r:id="rId426"/>
+    <hyperlink ref="F428" r:id="rId427"/>
+    <hyperlink ref="F429" r:id="rId428"/>
+    <hyperlink ref="F430" r:id="rId429"/>
+    <hyperlink ref="F431" r:id="rId430"/>
+    <hyperlink ref="F432" r:id="rId431"/>
+    <hyperlink ref="F433" r:id="rId432"/>
+    <hyperlink ref="F434" r:id="rId433"/>
+    <hyperlink ref="F435" r:id="rId434"/>
+    <hyperlink ref="F436" r:id="rId435"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId426"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId436"/>
 </worksheet>
 </file>